--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8333DF-A05F-4DB2-964C-1AD46D1C8C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31C320-A1FB-4072-9B02-4822C870198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -65,12 +65,19 @@
   <si>
     <t>Revisión de conceptos básicos</t>
   </si>
+  <si>
+    <t>18 JUNIO 2022</t>
+  </si>
+  <si>
+    <t>Mapas en Dart
+Colecciones en Dart</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +121,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,17 +228,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,7 +563,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,46 +597,52 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
@@ -884,72 +903,19 @@
       <c r="F58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+  <mergeCells count="91">
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -965,19 +931,72 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31C320-A1FB-4072-9B02-4822C870198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41561BD-81D7-4B88-B217-8079380FE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -71,6 +71,10 @@
   <si>
     <t>Mapas en Dart
 Colecciones en Dart</t>
+  </si>
+  <si>
+    <t>Palabras claves cons final dynamic
+Manipulación de String</t>
   </si>
 </sst>
 </file>
@@ -228,23 +232,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,10 +604,10 @@
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -612,18 +616,18 @@
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="10"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -632,19 +636,29 @@
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
@@ -903,19 +917,72 @@
       <c r="F58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+  <mergeCells count="92">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -931,70 +998,18 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41561BD-81D7-4B88-B217-8079380FE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578299F-16AA-4512-A967-D23F5B28DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
@@ -75,6 +75,13 @@
   <si>
     <t>Palabras claves cons final dynamic
 Manipulación de String</t>
+  </si>
+  <si>
+    <t>20 JUNIO 2022</t>
+  </si>
+  <si>
+    <t>Suma Positivos y Negativos en Dart
+Estructura condicional switch en Dart</t>
   </si>
 </sst>
 </file>
@@ -233,22 +240,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +574,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,88 +608,96 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
@@ -918,71 +933,18 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -998,18 +960,71 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578299F-16AA-4512-A967-D23F5B28DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581F294-7C04-4656-A557-DEBA9F5ECE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -82,6 +82,10 @@
   <si>
     <t>Suma Positivos y Negativos en Dart
 Estructura condicional switch en Dart</t>
+  </si>
+  <si>
+    <t>Estructura de flujo while and Do While en Dart
+Funciones en Dart</t>
   </si>
 </sst>
 </file>
@@ -240,6 +244,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,12 +260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,96 +612,104 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
@@ -933,18 +945,71 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -960,71 +1025,18 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581F294-7C04-4656-A557-DEBA9F5ECE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A5F45-B032-4A62-8468-0E74C2BBA432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -86,6 +86,14 @@
   <si>
     <t>Estructura de flujo while and Do While en Dart
 Funciones en Dart</t>
+  </si>
+  <si>
+    <t>Tipo de parametros en Dart
+Final y const  Dart
+Palabra clave static</t>
+  </si>
+  <si>
+    <t>21 JUNIO 2022</t>
   </si>
 </sst>
 </file>
@@ -244,22 +252,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +586,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,116 +620,124 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
@@ -945,71 +961,18 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1025,18 +988,71 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A5F45-B032-4A62-8468-0E74C2BBA432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CDA70-23D6-4040-894C-432F5046CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>21 JUNIO 2022</t>
+  </si>
+  <si>
+    <t>22 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clases en Dart
+Colecciones  Dart
+</t>
   </si>
 </sst>
 </file>
@@ -252,6 +260,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,12 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,136 +628,144 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
@@ -961,18 +977,71 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -988,71 +1057,18 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CDA70-23D6-4040-894C-432F5046CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC166E-F0DA-4653-9355-FDA2518AE964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Fecha</t>
   </si>
@@ -101,6 +101,11 @@
   <si>
     <t xml:space="preserve">Clases en Dart
 Colecciones  Dart
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renes en Dart
+Herencias en  Dart
 </t>
   </si>
 </sst>
@@ -260,22 +265,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +599,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,156 +633,164 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
@@ -977,71 +990,18 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1057,18 +1017,71 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC166E-F0DA-4653-9355-FDA2518AE964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B432BF-C6F3-40C2-B700-4EF4D6E95F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -106,6 +106,14 @@
   <si>
     <t xml:space="preserve">Renes en Dart
 Herencias en  Dart
+</t>
+  </si>
+  <si>
+    <t>23 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clases abstractas en Dart
+Implicitas en  Dart
 </t>
   </si>
 </sst>
@@ -265,6 +273,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,12 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,176 +641,184 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
@@ -990,18 +1006,71 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1017,71 +1086,18 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B432BF-C6F3-40C2-B700-4EF4D6E95F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C1EB5-DCC5-4277-B0C0-42608872BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -114,6 +114,11 @@
   <si>
     <t xml:space="preserve">Clases abstractas en Dart
 Implicitas en  Dart
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registros de datos en Dart
+Listar registros en  Dart
 </t>
   </si>
 </sst>
@@ -273,12 +278,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,6 +288,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +612,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,196 +646,204 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
@@ -1006,71 +1019,18 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1086,18 +1046,71 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C1EB5-DCC5-4277-B0C0-42608872BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9D0ED-FCB7-4560-AA19-4E0535F4036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -120,6 +120,13 @@
     <t xml:space="preserve">Registros de datos en Dart
 Listar registros en  Dart
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementando flutter para desarrollo de interfaz
+</t>
+  </si>
+  <si>
+    <t>24 JUNIO 2022</t>
   </si>
 </sst>
 </file>
@@ -278,6 +285,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,12 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,216 +653,224 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
@@ -1019,18 +1034,71 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1046,71 +1114,18 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9D0ED-FCB7-4560-AA19-4E0535F4036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E80E4-E576-496C-8386-471394864DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Fecha</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>24 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vistas en Flutter
+</t>
   </si>
 </sst>
 </file>
@@ -278,18 +282,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -301,6 +293,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,452 +657,410 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="4:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="4:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="4:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="4:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="4:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="4:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+  <mergeCells count="93">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1114,18 +1076,71 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E80E4-E576-496C-8386-471394864DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B218131-5351-4395-92F2-C844AE8DAA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -130,6 +130,20 @@
   </si>
   <si>
     <t xml:space="preserve">Vistas en Flutter
+</t>
+  </si>
+  <si>
+    <t>27 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creando Botones
+</t>
+  </si>
+  <si>
+    <t>25 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegando en vistas
 </t>
   </si>
 </sst>
@@ -288,6 +302,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -299,12 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,10 +674,10 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -672,18 +686,18 @@
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -692,18 +706,18 @@
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -712,18 +726,18 @@
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -732,18 +746,18 @@
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -752,18 +766,18 @@
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -772,18 +786,18 @@
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -792,18 +806,18 @@
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -812,18 +826,18 @@
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -832,18 +846,18 @@
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -852,18 +866,18 @@
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -872,18 +886,18 @@
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -892,162 +906,261 @@
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+    <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="12"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="4:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="4:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="4:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="4:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="4:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="4:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="95">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="E55:E56"/>
@@ -1064,83 +1177,6 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B218131-5351-4395-92F2-C844AE8DAA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66558E1C-0750-4840-AF2B-DBD8D17A579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -144,6 +144,17 @@
   </si>
   <si>
     <t xml:space="preserve">Navegando en vistas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obteniendo datos de campos de texto
+</t>
+  </si>
+  <si>
+    <t>28 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obteniendo datos de campos de texto continuacion
 </t>
   </si>
 </sst>
@@ -302,12 +313,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -319,6 +324,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +648,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F36"/>
+      <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +685,10 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -686,18 +697,18 @@
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -706,18 +717,18 @@
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -726,18 +737,18 @@
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -746,18 +757,18 @@
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -766,18 +777,18 @@
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -786,18 +797,18 @@
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -806,18 +817,18 @@
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -826,18 +837,18 @@
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -846,18 +857,18 @@
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -866,18 +877,18 @@
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -886,18 +897,18 @@
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -906,18 +917,18 @@
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -926,18 +937,18 @@
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="6"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -946,150 +957,241 @@
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="4:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="6"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="4:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="6"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="4:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="4:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="4:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="4:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+  <mergeCells count="97">
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C5:C6"/>
@@ -1099,84 +1201,15 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66558E1C-0750-4840-AF2B-DBD8D17A579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC84E1-5288-4800-959D-566BD4365B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t xml:space="preserve">Obteniendo datos de campos de texto continuacion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de datos en dart
 </t>
   </si>
 </sst>
@@ -307,6 +311,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -324,12 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
@@ -682,454 +686,534 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="12"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
+  <mergeCells count="98">
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
@@ -1141,75 +1225,6 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC84E1-5288-4800-959D-566BD4365B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEF76E-2D68-4126-BBC5-4892F38B109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Fecha</t>
   </si>
@@ -160,6 +160,16 @@
   <si>
     <t xml:space="preserve">Registro de datos en dart
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de datos en dart continuacion
+</t>
+  </si>
+  <si>
+    <t>29 JUNIO 2022</t>
+  </si>
+  <si>
+    <t>Revisión de conceptos flutter</t>
   </si>
 </sst>
 </file>
@@ -311,12 +321,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -334,6 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,529 +696,458 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+  <mergeCells count="99">
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
@@ -1225,6 +1164,88 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEF76E-2D68-4126-BBC5-4892F38B109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB490136-CB19-4D33-B94D-F04316841ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Fecha</t>
   </si>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>Revisión de conceptos flutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar registros de datos
+</t>
   </si>
 </sst>
 </file>
@@ -327,6 +331,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -338,12 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +666,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F42"/>
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +703,10 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -711,18 +715,18 @@
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -731,18 +735,18 @@
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -751,18 +755,18 @@
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -771,18 +775,18 @@
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -791,18 +795,18 @@
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -811,18 +815,18 @@
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -831,18 +835,18 @@
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -851,18 +855,18 @@
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -871,18 +875,18 @@
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -891,18 +895,18 @@
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -911,18 +915,18 @@
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -931,18 +935,18 @@
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -951,18 +955,18 @@
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -971,18 +975,18 @@
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -991,18 +995,18 @@
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -1011,18 +1015,18 @@
     </row>
     <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -1031,18 +1035,18 @@
     </row>
     <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1051,102 +1055,196 @@
     </row>
     <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+    <row r="41" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="12"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="100">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1163,89 +1261,6 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB490136-CB19-4D33-B94D-F04316841ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B756ECF-B72B-477B-8515-C29B6166F880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Fecha</t>
   </si>
@@ -174,6 +174,13 @@
   <si>
     <t xml:space="preserve">Listar registros de datos
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar registros de datos continuación
+</t>
+  </si>
+  <si>
+    <t>30 JUNIO 2022</t>
   </si>
 </sst>
 </file>
@@ -331,12 +338,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -348,6 +349,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +673,7 @@
   <dimension ref="C2:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+      <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,10 +710,10 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -715,18 +722,18 @@
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -735,18 +742,18 @@
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -755,18 +762,18 @@
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -775,18 +782,18 @@
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -795,18 +802,18 @@
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -815,18 +822,18 @@
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -835,18 +842,18 @@
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -855,18 +862,18 @@
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -875,18 +882,18 @@
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -895,18 +902,18 @@
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -915,18 +922,18 @@
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -935,18 +942,18 @@
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -955,18 +962,18 @@
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="6"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -975,18 +982,18 @@
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -995,18 +1002,18 @@
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="6"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -1015,18 +1022,18 @@
     </row>
     <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="6"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -1035,18 +1042,18 @@
     </row>
     <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="6"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1055,18 +1062,18 @@
     </row>
     <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="6"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -1075,103 +1082,180 @@
     </row>
     <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="6"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+    <row r="43" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="6"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
+  <mergeCells count="101">
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C5:C6"/>
@@ -1181,86 +1265,20 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D48"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredo\Documents\GitHub\bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B756ECF-B72B-477B-8515-C29B6166F880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE94013-F7C8-441E-B37D-5D5D93234B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Fecha</t>
   </si>
@@ -181,6 +181,17 @@
   </si>
   <si>
     <t>30 JUNIO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListviewBuilder
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CardWidget
+</t>
+  </si>
+  <si>
+    <t>01 JULIO 2022</t>
   </si>
 </sst>
 </file>
@@ -332,6 +343,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -349,12 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,553 +718,506 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" spans="3:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="12"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="3:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="12"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="4:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="4:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="4:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="4:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+  <mergeCells count="103">
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C9:C10"/>
@@ -1270,15 +1234,84 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
